--- a/review/レビュー指摘.xlsx
+++ b/review/レビュー指摘.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6033EB5-9B39-49E2-A8EF-CD28983DFC55}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{C6033EB5-9B39-49E2-A8EF-CD28983DFC55}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{E829EF2F-62B8-45A7-A7F6-D3645AC0D8A3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">委託元QA!$B$2:$K$53</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">委託元QA!$A$1:$P$57</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>No</t>
     <phoneticPr fontId="2"/>
@@ -538,6 +538,19 @@
     <t>accatoken</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>const定義は大文字に変更。</t>
+  </si>
+  <si>
+    <t>簡単なコメントを記載。</t>
+  </si>
+  <si>
+    <t>マップの外周を生成後、
+柱を作成時ランダムに壁を生成するに変更。</t>
+  </si>
+  <si>
+    <t>それぞれの処理を関数化。</t>
+  </si>
 </sst>
 </file>
 
@@ -546,7 +559,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -639,7 +652,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -676,6 +689,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1023,32 +1039,32 @@
   </sheetPr>
   <dimension ref="B1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H7"/>
+    <sheetView tabSelected="1" topLeftCell="F5" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.94921875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="60" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12" style="2" customWidth="1"/>
-    <col min="11" max="11" width="48.875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8.75" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.5" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.5" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="1.8359375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.00390625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.4765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.76171875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="59.94921875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.01171875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.87109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.01171875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="48.9140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.54296875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.27734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.44921875" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="8.94921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="9.75" customHeight="1"/>
-    <row r="2" spans="2:14" ht="19.5">
+    <row r="1" spans="2:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:14" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1089,7 +1105,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="112.5">
+    <row r="3" spans="2:14" ht="99.75" x14ac:dyDescent="0.35">
       <c r="B3" s="4">
         <f>ROW() - 2</f>
         <v>1</v>
@@ -1113,17 +1129,21 @@
         <v>29</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="6"/>
+      <c r="K3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="6">
+        <v>43597</v>
+      </c>
       <c r="M3" s="4"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="2:14" ht="56.25">
+    <row r="4" spans="2:14" ht="50.25" x14ac:dyDescent="0.35">
       <c r="B4" s="4">
         <f>ROW() - 2</f>
         <v>2</v>
@@ -1147,7 +1167,7 @@
         <v>29</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>28</v>
@@ -1157,7 +1177,7 @@
       <c r="M4" s="4"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="2:14" ht="112.5">
+    <row r="5" spans="2:14" ht="99.75" x14ac:dyDescent="0.35">
       <c r="B5" s="4">
         <f t="shared" ref="B5:B53" si="0">ROW() - 2</f>
         <v>3</v>
@@ -1181,17 +1201,21 @@
         <v>29</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="6"/>
+      <c r="K5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="6">
+        <v>43597</v>
+      </c>
       <c r="M5" s="4"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="2:14" ht="150">
+    <row r="6" spans="2:14" ht="132.75" x14ac:dyDescent="0.35">
       <c r="B6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1215,17 +1239,21 @@
         <v>29</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="6"/>
+      <c r="K6" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="6">
+        <v>43597</v>
+      </c>
       <c r="M6" s="4"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="2:14" ht="131.25">
+    <row r="7" spans="2:14" ht="116.25" x14ac:dyDescent="0.35">
       <c r="B7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1249,17 +1277,21 @@
         <v>29</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="6"/>
+      <c r="K7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="6">
+        <v>43597</v>
+      </c>
       <c r="M7" s="4"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1277,7 +1309,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1295,7 +1327,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1313,7 +1345,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1331,7 +1363,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1349,7 +1381,7 @@
       <c r="M12" s="4"/>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1367,7 +1399,7 @@
       <c r="M13" s="4"/>
       <c r="N13" s="6"/>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1385,7 +1417,7 @@
       <c r="M14" s="4"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1403,7 +1435,7 @@
       <c r="M15" s="4"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1421,7 +1453,7 @@
       <c r="M16" s="4"/>
       <c r="N16" s="11"/>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1439,7 +1471,7 @@
       <c r="M17" s="4"/>
       <c r="N17" s="11"/>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1457,7 +1489,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="11"/>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1475,7 +1507,7 @@
       <c r="M19" s="4"/>
       <c r="N19" s="11"/>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1493,7 +1525,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="11"/>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1511,7 +1543,7 @@
       <c r="M21" s="4"/>
       <c r="N21" s="11"/>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1529,7 +1561,7 @@
       <c r="M22" s="4"/>
       <c r="N22" s="11"/>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1547,7 +1579,7 @@
       <c r="M23" s="4"/>
       <c r="N23" s="11"/>
     </row>
-    <row r="24" spans="2:14">
+    <row r="24" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B24" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1565,7 +1597,7 @@
       <c r="M24" s="4"/>
       <c r="N24" s="11"/>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B25" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1583,7 +1615,7 @@
       <c r="M25" s="4"/>
       <c r="N25" s="11"/>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1601,7 +1633,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="11"/>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1619,7 +1651,7 @@
       <c r="M27" s="4"/>
       <c r="N27" s="11"/>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B28" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1637,7 +1669,7 @@
       <c r="M28" s="4"/>
       <c r="N28" s="11"/>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B29" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1655,7 +1687,7 @@
       <c r="M29" s="4"/>
       <c r="N29" s="11"/>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B30" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1673,7 +1705,7 @@
       <c r="M30" s="4"/>
       <c r="N30" s="11"/>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1691,7 +1723,7 @@
       <c r="M31" s="4"/>
       <c r="N31" s="11"/>
     </row>
-    <row r="32" spans="2:14" ht="86.25" customHeight="1">
+    <row r="32" spans="2:14" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1709,7 +1741,7 @@
       <c r="M32" s="4"/>
       <c r="N32" s="11"/>
     </row>
-    <row r="33" spans="2:14" ht="219" customHeight="1">
+    <row r="33" spans="2:14" ht="219" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1727,7 +1759,7 @@
       <c r="M33" s="4"/>
       <c r="N33" s="11"/>
     </row>
-    <row r="34" spans="2:14">
+    <row r="34" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1745,7 +1777,7 @@
       <c r="M34" s="4"/>
       <c r="N34" s="11"/>
     </row>
-    <row r="35" spans="2:14">
+    <row r="35" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B35" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1763,7 +1795,7 @@
       <c r="M35" s="4"/>
       <c r="N35" s="11"/>
     </row>
-    <row r="36" spans="2:14">
+    <row r="36" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B36" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1781,7 +1813,7 @@
       <c r="M36" s="4"/>
       <c r="N36" s="11"/>
     </row>
-    <row r="37" spans="2:14">
+    <row r="37" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B37" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1799,7 +1831,7 @@
       <c r="M37" s="4"/>
       <c r="N37" s="11"/>
     </row>
-    <row r="38" spans="2:14">
+    <row r="38" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B38" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1817,7 +1849,7 @@
       <c r="M38" s="4"/>
       <c r="N38" s="11"/>
     </row>
-    <row r="39" spans="2:14">
+    <row r="39" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B39" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1835,7 +1867,7 @@
       <c r="M39" s="4"/>
       <c r="N39" s="11"/>
     </row>
-    <row r="40" spans="2:14">
+    <row r="40" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B40" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1853,7 +1885,7 @@
       <c r="M40" s="4"/>
       <c r="N40" s="11"/>
     </row>
-    <row r="41" spans="2:14">
+    <row r="41" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1871,7 +1903,7 @@
       <c r="M41" s="4"/>
       <c r="N41" s="11"/>
     </row>
-    <row r="42" spans="2:14">
+    <row r="42" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B42" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1889,7 +1921,7 @@
       <c r="M42" s="4"/>
       <c r="N42" s="11"/>
     </row>
-    <row r="43" spans="2:14">
+    <row r="43" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B43" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1907,7 +1939,7 @@
       <c r="M43" s="4"/>
       <c r="N43" s="11"/>
     </row>
-    <row r="44" spans="2:14">
+    <row r="44" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1925,7 +1957,7 @@
       <c r="M44" s="4"/>
       <c r="N44" s="11"/>
     </row>
-    <row r="45" spans="2:14">
+    <row r="45" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B45" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1943,7 +1975,7 @@
       <c r="M45" s="4"/>
       <c r="N45" s="11"/>
     </row>
-    <row r="46" spans="2:14">
+    <row r="46" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B46" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1961,7 +1993,7 @@
       <c r="M46" s="4"/>
       <c r="N46" s="11"/>
     </row>
-    <row r="47" spans="2:14">
+    <row r="47" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1979,7 +2011,7 @@
       <c r="M47" s="4"/>
       <c r="N47" s="11"/>
     </row>
-    <row r="48" spans="2:14">
+    <row r="48" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B48" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1997,7 +2029,7 @@
       <c r="M48" s="4"/>
       <c r="N48" s="11"/>
     </row>
-    <row r="49" spans="2:14">
+    <row r="49" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B49" s="4">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2015,7 +2047,7 @@
       <c r="M49" s="4"/>
       <c r="N49" s="11"/>
     </row>
-    <row r="50" spans="2:14">
+    <row r="50" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B50" s="4">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2033,7 +2065,7 @@
       <c r="M50" s="4"/>
       <c r="N50" s="11"/>
     </row>
-    <row r="51" spans="2:14">
+    <row r="51" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B51" s="4">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2051,7 +2083,7 @@
       <c r="M51" s="4"/>
       <c r="N51" s="11"/>
     </row>
-    <row r="52" spans="2:14">
+    <row r="52" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B52" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2069,7 +2101,7 @@
       <c r="M52" s="4"/>
       <c r="N52" s="11"/>
     </row>
-    <row r="53" spans="2:14">
+    <row r="53" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B53" s="4">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2197,16 +2229,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" xr3:uid="{9B253EF2-77E0-53E3-AE26-4D66ECD923F3}">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.9921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2214,7 +2246,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2222,7 +2254,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2230,12 +2262,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
         <v>23</v>
       </c>

--- a/review/レビュー指摘.xlsx
+++ b/review/レビュー指摘.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{C6033EB5-9B39-49E2-A8EF-CD28983DFC55}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{E829EF2F-62B8-45A7-A7F6-D3645AC0D8A3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7899EC16-FD30-476D-A972-DE519E522875}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
   <si>
     <t>No</t>
     <phoneticPr fontId="2"/>
@@ -551,6 +551,137 @@
   <si>
     <t>それぞれの処理を関数化。</t>
   </si>
+  <si>
+    <t>Main</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変数「map」はローカル変数ではなく、クラス内変数(フィールド変数)で定義し、各関数の引数は無くてもよい。
+クラス内変数にする場合は変数名を
+MazeMapなど、頭文字を大文字にするなどのルール付けをしておいた方が良い。</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="66" eb="69">
+      <t>ヘンスウメイ</t>
+    </rPh>
+    <rPh sb="81" eb="84">
+      <t>カシラモジ</t>
+    </rPh>
+    <rPh sb="85" eb="88">
+      <t>オオモジ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>処理中にマップの最大サイズを参照する際、
+・MAP_HEIGHT -1、MAP_WIDTH -1 
+・map.GetLength(0)
+2つの参照方法があるため、どちらかに統一した方が良い。</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>トウイツ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MazeGenerate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>int direction = rnd.Next(4);
+case文が0～2のため、rnd.Next(3)にするかswitch文にdefault文を書いた方が良い。</t>
+    <rPh sb="33" eb="34">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -559,7 +690,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1039,32 +1170,32 @@
   </sheetPr>
   <dimension ref="B1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F5" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94921875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="1.8359375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.00390625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.4765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.76171875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="59.94921875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.01171875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.87109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.01171875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="48.9140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8.703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.54296875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.27734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.44921875" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="8.94921875" style="2"/>
+    <col min="1" max="1" width="1.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="60" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12" style="2" customWidth="1"/>
+    <col min="11" max="11" width="48.875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.75" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.5" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.5" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:14" ht="9.75" customHeight="1"/>
+    <row r="2" spans="2:14" ht="19.5">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1105,7 +1236,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="99.75" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" ht="112.5">
       <c r="B3" s="4">
         <f>ROW() - 2</f>
         <v>1</v>
@@ -1140,10 +1271,14 @@
       <c r="L3" s="6">
         <v>43597</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="6"/>
-    </row>
-    <row r="4" spans="2:14" ht="50.25" x14ac:dyDescent="0.35">
+      <c r="M3" s="4">
+        <v>4</v>
+      </c>
+      <c r="N3" s="6">
+        <v>43597</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="56.25">
       <c r="B4" s="4">
         <f>ROW() - 2</f>
         <v>2</v>
@@ -1177,7 +1312,7 @@
       <c r="M4" s="4"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="2:14" ht="99.75" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14" ht="112.5">
       <c r="B5" s="4">
         <f t="shared" ref="B5:B53" si="0">ROW() - 2</f>
         <v>3</v>
@@ -1212,10 +1347,14 @@
       <c r="L5" s="6">
         <v>43597</v>
       </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="2:14" ht="132.75" x14ac:dyDescent="0.35">
+      <c r="M5" s="4">
+        <v>4</v>
+      </c>
+      <c r="N5" s="6">
+        <v>43597</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="150">
       <c r="B6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1250,10 +1389,14 @@
       <c r="L6" s="6">
         <v>43597</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="2:14" ht="116.25" x14ac:dyDescent="0.35">
+      <c r="M6" s="4">
+        <v>4</v>
+      </c>
+      <c r="N6" s="6">
+        <v>43597</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="131.25">
       <c r="B7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1288,64 +1431,110 @@
       <c r="L7" s="6">
         <v>43597</v>
       </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="2:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="M7" s="4">
+        <v>4</v>
+      </c>
+      <c r="N7" s="6">
+        <v>43597</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="93.75">
       <c r="B8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="C8" s="4">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="6">
+        <v>43597</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="J8" s="6"/>
       <c r="K8" s="4"/>
       <c r="L8" s="6"/>
       <c r="M8" s="4"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="2:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" ht="75">
       <c r="B9" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="C9" s="4">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="6">
+        <v>43597</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="J9" s="6"/>
       <c r="K9" s="4"/>
       <c r="L9" s="6"/>
       <c r="M9" s="4"/>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="2:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" ht="56.25">
       <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="C10" s="4">
+        <v>4</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="6">
+        <v>43597</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="J10" s="6"/>
       <c r="K10" s="4"/>
       <c r="L10" s="6"/>
       <c r="M10" s="4"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="2:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14">
       <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1363,7 +1552,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="2:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14">
       <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1381,7 +1570,7 @@
       <c r="M12" s="4"/>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" spans="2:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14">
       <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1399,7 +1588,7 @@
       <c r="M13" s="4"/>
       <c r="N13" s="6"/>
     </row>
-    <row r="14" spans="2:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14">
       <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1417,7 +1606,7 @@
       <c r="M14" s="4"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="2:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14">
       <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1435,7 +1624,7 @@
       <c r="M15" s="4"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="2:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14">
       <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1453,7 +1642,7 @@
       <c r="M16" s="4"/>
       <c r="N16" s="11"/>
     </row>
-    <row r="17" spans="2:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14">
       <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1471,7 +1660,7 @@
       <c r="M17" s="4"/>
       <c r="N17" s="11"/>
     </row>
-    <row r="18" spans="2:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14">
       <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1489,7 +1678,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="11"/>
     </row>
-    <row r="19" spans="2:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14">
       <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1507,7 +1696,7 @@
       <c r="M19" s="4"/>
       <c r="N19" s="11"/>
     </row>
-    <row r="20" spans="2:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14">
       <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1525,7 +1714,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="11"/>
     </row>
-    <row r="21" spans="2:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14">
       <c r="B21" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1543,7 +1732,7 @@
       <c r="M21" s="4"/>
       <c r="N21" s="11"/>
     </row>
-    <row r="22" spans="2:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14">
       <c r="B22" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1561,7 +1750,7 @@
       <c r="M22" s="4"/>
       <c r="N22" s="11"/>
     </row>
-    <row r="23" spans="2:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14">
       <c r="B23" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1579,7 +1768,7 @@
       <c r="M23" s="4"/>
       <c r="N23" s="11"/>
     </row>
-    <row r="24" spans="2:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14">
       <c r="B24" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1597,7 +1786,7 @@
       <c r="M24" s="4"/>
       <c r="N24" s="11"/>
     </row>
-    <row r="25" spans="2:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14">
       <c r="B25" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1615,7 +1804,7 @@
       <c r="M25" s="4"/>
       <c r="N25" s="11"/>
     </row>
-    <row r="26" spans="2:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14">
       <c r="B26" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1633,7 +1822,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="11"/>
     </row>
-    <row r="27" spans="2:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14">
       <c r="B27" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1651,7 +1840,7 @@
       <c r="M27" s="4"/>
       <c r="N27" s="11"/>
     </row>
-    <row r="28" spans="2:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14">
       <c r="B28" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1669,7 +1858,7 @@
       <c r="M28" s="4"/>
       <c r="N28" s="11"/>
     </row>
-    <row r="29" spans="2:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14">
       <c r="B29" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1687,7 +1876,7 @@
       <c r="M29" s="4"/>
       <c r="N29" s="11"/>
     </row>
-    <row r="30" spans="2:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14">
       <c r="B30" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1705,7 +1894,7 @@
       <c r="M30" s="4"/>
       <c r="N30" s="11"/>
     </row>
-    <row r="31" spans="2:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14">
       <c r="B31" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1723,7 +1912,7 @@
       <c r="M31" s="4"/>
       <c r="N31" s="11"/>
     </row>
-    <row r="32" spans="2:14" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" ht="86.25" customHeight="1">
       <c r="B32" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1741,7 +1930,7 @@
       <c r="M32" s="4"/>
       <c r="N32" s="11"/>
     </row>
-    <row r="33" spans="2:14" ht="219" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" ht="219" customHeight="1">
       <c r="B33" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1759,7 +1948,7 @@
       <c r="M33" s="4"/>
       <c r="N33" s="11"/>
     </row>
-    <row r="34" spans="2:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14">
       <c r="B34" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1777,7 +1966,7 @@
       <c r="M34" s="4"/>
       <c r="N34" s="11"/>
     </row>
-    <row r="35" spans="2:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14">
       <c r="B35" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1795,7 +1984,7 @@
       <c r="M35" s="4"/>
       <c r="N35" s="11"/>
     </row>
-    <row r="36" spans="2:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14">
       <c r="B36" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1813,7 +2002,7 @@
       <c r="M36" s="4"/>
       <c r="N36" s="11"/>
     </row>
-    <row r="37" spans="2:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14">
       <c r="B37" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1831,7 +2020,7 @@
       <c r="M37" s="4"/>
       <c r="N37" s="11"/>
     </row>
-    <row r="38" spans="2:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14">
       <c r="B38" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1849,7 +2038,7 @@
       <c r="M38" s="4"/>
       <c r="N38" s="11"/>
     </row>
-    <row r="39" spans="2:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14">
       <c r="B39" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1867,7 +2056,7 @@
       <c r="M39" s="4"/>
       <c r="N39" s="11"/>
     </row>
-    <row r="40" spans="2:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14">
       <c r="B40" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1885,7 +2074,7 @@
       <c r="M40" s="4"/>
       <c r="N40" s="11"/>
     </row>
-    <row r="41" spans="2:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14">
       <c r="B41" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1903,7 +2092,7 @@
       <c r="M41" s="4"/>
       <c r="N41" s="11"/>
     </row>
-    <row r="42" spans="2:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14">
       <c r="B42" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1921,7 +2110,7 @@
       <c r="M42" s="4"/>
       <c r="N42" s="11"/>
     </row>
-    <row r="43" spans="2:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14">
       <c r="B43" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1939,7 +2128,7 @@
       <c r="M43" s="4"/>
       <c r="N43" s="11"/>
     </row>
-    <row r="44" spans="2:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14">
       <c r="B44" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1957,7 +2146,7 @@
       <c r="M44" s="4"/>
       <c r="N44" s="11"/>
     </row>
-    <row r="45" spans="2:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14">
       <c r="B45" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1975,7 +2164,7 @@
       <c r="M45" s="4"/>
       <c r="N45" s="11"/>
     </row>
-    <row r="46" spans="2:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14">
       <c r="B46" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1993,7 +2182,7 @@
       <c r="M46" s="4"/>
       <c r="N46" s="11"/>
     </row>
-    <row r="47" spans="2:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14">
       <c r="B47" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2011,7 +2200,7 @@
       <c r="M47" s="4"/>
       <c r="N47" s="11"/>
     </row>
-    <row r="48" spans="2:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14">
       <c r="B48" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2029,7 +2218,7 @@
       <c r="M48" s="4"/>
       <c r="N48" s="11"/>
     </row>
-    <row r="49" spans="2:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14">
       <c r="B49" s="4">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2047,7 +2236,7 @@
       <c r="M49" s="4"/>
       <c r="N49" s="11"/>
     </row>
-    <row r="50" spans="2:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:14">
       <c r="B50" s="4">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2065,7 +2254,7 @@
       <c r="M50" s="4"/>
       <c r="N50" s="11"/>
     </row>
-    <row r="51" spans="2:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:14">
       <c r="B51" s="4">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2083,7 +2272,7 @@
       <c r="M51" s="4"/>
       <c r="N51" s="11"/>
     </row>
-    <row r="52" spans="2:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14">
       <c r="B52" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2101,7 +2290,7 @@
       <c r="M52" s="4"/>
       <c r="N52" s="11"/>
     </row>
-    <row r="53" spans="2:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:14">
       <c r="B53" s="4">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2229,16 +2418,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{9B253EF2-77E0-53E3-AE26-4D66ECD923F3}">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="12.9921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2246,7 +2435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3">
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2254,7 +2443,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2262,12 +2451,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3">
       <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3">
       <c r="B6" s="15" t="s">
         <v>23</v>
       </c>

--- a/review/レビュー指摘.xlsx
+++ b/review/レビュー指摘.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7899EC16-FD30-476D-A972-DE519E522875}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="102_{47256E43-3DD7-4150-B497-4DF098759F6A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{140F0DF8-1FE4-4DDD-9479-E3EE9AE08AE2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
   <si>
     <t>No</t>
     <phoneticPr fontId="2"/>
@@ -552,10 +552,6 @@
     <t>それぞれの処理を関数化。</t>
   </si>
   <si>
-    <t>Main</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>変数「map」はローカル変数ではなく、クラス内変数(フィールド変数)で定義し、各関数の引数は無くてもよい。
 クラス内変数にする場合は変数名を
 MazeMapなど、頭文字を大文字にするなどのルール付けをしておいた方が良い。</t>
@@ -681,6 +677,13 @@
       <t>ヨ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>zlatantan</t>
+  </si>
+  <si>
+    <t>変数「map」をフィールド変数で定義し、
+各関数の引数も削除。</t>
   </si>
 </sst>
 </file>
@@ -690,7 +693,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1170,32 +1173,30 @@
   </sheetPr>
   <dimension ref="B1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:I10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.94921875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="60" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12" style="2" customWidth="1"/>
-    <col min="11" max="11" width="48.875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8.75" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.5" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.5" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="1.8359375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.00390625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.4765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.76171875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="59.94921875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.01171875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.87109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.01171875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="48.9140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.54296875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.27734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.44921875" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="8.94921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="9.75" customHeight="1"/>
-    <row r="2" spans="2:14" ht="19.5">
+    <row r="1" spans="2:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:14" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1236,7 +1237,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="112.5">
+    <row r="3" spans="2:14" ht="99.75" x14ac:dyDescent="0.35">
       <c r="B3" s="4">
         <f>ROW() - 2</f>
         <v>1</v>
@@ -1278,7 +1279,7 @@
         <v>43597</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="56.25">
+    <row r="4" spans="2:14" ht="50.25" x14ac:dyDescent="0.35">
       <c r="B4" s="4">
         <f>ROW() - 2</f>
         <v>2</v>
@@ -1312,7 +1313,7 @@
       <c r="M4" s="4"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="2:14" ht="112.5">
+    <row r="5" spans="2:14" ht="99.75" x14ac:dyDescent="0.35">
       <c r="B5" s="4">
         <f t="shared" ref="B5:B53" si="0">ROW() - 2</f>
         <v>3</v>
@@ -1354,7 +1355,7 @@
         <v>43597</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="150">
+    <row r="6" spans="2:14" ht="132.75" x14ac:dyDescent="0.35">
       <c r="B6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1396,7 +1397,7 @@
         <v>43597</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="131.25">
+    <row r="7" spans="2:14" ht="116.25" x14ac:dyDescent="0.35">
       <c r="B7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1438,7 +1439,7 @@
         <v>43597</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="93.75">
+    <row r="8" spans="2:14" ht="83.25" x14ac:dyDescent="0.35">
       <c r="B8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1450,10 +1451,10 @@
         <v>11</v>
       </c>
       <c r="E8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="G8" s="6">
         <v>43597</v>
@@ -1462,15 +1463,21 @@
         <v>29</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="6">
+        <v>43603</v>
+      </c>
       <c r="M8" s="4"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="2:14" ht="75">
+    <row r="9" spans="2:14" ht="66.75" x14ac:dyDescent="0.35">
       <c r="B9" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1485,7 +1492,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" s="6">
         <v>43597</v>
@@ -1494,15 +1501,19 @@
         <v>29</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="K9" s="4"/>
-      <c r="L9" s="6"/>
+      <c r="L9" s="6">
+        <v>43597</v>
+      </c>
       <c r="M9" s="4"/>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="2:14" ht="56.25">
+    <row r="10" spans="2:14" ht="50.25" x14ac:dyDescent="0.35">
       <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1514,10 +1525,10 @@
         <v>11</v>
       </c>
       <c r="E10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="G10" s="6">
         <v>43597</v>
@@ -1526,15 +1537,19 @@
         <v>29</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="K10" s="4"/>
-      <c r="L10" s="6"/>
+      <c r="L10" s="6">
+        <v>43597</v>
+      </c>
       <c r="M10" s="4"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1552,7 +1567,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1570,7 +1585,7 @@
       <c r="M12" s="4"/>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1588,7 +1603,7 @@
       <c r="M13" s="4"/>
       <c r="N13" s="6"/>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1606,7 +1621,7 @@
       <c r="M14" s="4"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1624,7 +1639,7 @@
       <c r="M15" s="4"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1642,7 +1657,7 @@
       <c r="M16" s="4"/>
       <c r="N16" s="11"/>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1660,7 +1675,7 @@
       <c r="M17" s="4"/>
       <c r="N17" s="11"/>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1678,7 +1693,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="11"/>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1696,7 +1711,7 @@
       <c r="M19" s="4"/>
       <c r="N19" s="11"/>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1714,7 +1729,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="11"/>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1732,7 +1747,7 @@
       <c r="M21" s="4"/>
       <c r="N21" s="11"/>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1750,7 +1765,7 @@
       <c r="M22" s="4"/>
       <c r="N22" s="11"/>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1768,7 +1783,7 @@
       <c r="M23" s="4"/>
       <c r="N23" s="11"/>
     </row>
-    <row r="24" spans="2:14">
+    <row r="24" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B24" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1786,7 +1801,7 @@
       <c r="M24" s="4"/>
       <c r="N24" s="11"/>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B25" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1804,7 +1819,7 @@
       <c r="M25" s="4"/>
       <c r="N25" s="11"/>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1822,7 +1837,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="11"/>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1840,7 +1855,7 @@
       <c r="M27" s="4"/>
       <c r="N27" s="11"/>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B28" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1858,7 +1873,7 @@
       <c r="M28" s="4"/>
       <c r="N28" s="11"/>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B29" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1876,7 +1891,7 @@
       <c r="M29" s="4"/>
       <c r="N29" s="11"/>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B30" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1894,7 +1909,7 @@
       <c r="M30" s="4"/>
       <c r="N30" s="11"/>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1912,7 +1927,7 @@
       <c r="M31" s="4"/>
       <c r="N31" s="11"/>
     </row>
-    <row r="32" spans="2:14" ht="86.25" customHeight="1">
+    <row r="32" spans="2:14" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1930,7 +1945,7 @@
       <c r="M32" s="4"/>
       <c r="N32" s="11"/>
     </row>
-    <row r="33" spans="2:14" ht="219" customHeight="1">
+    <row r="33" spans="2:14" ht="219" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1948,7 +1963,7 @@
       <c r="M33" s="4"/>
       <c r="N33" s="11"/>
     </row>
-    <row r="34" spans="2:14">
+    <row r="34" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1966,7 +1981,7 @@
       <c r="M34" s="4"/>
       <c r="N34" s="11"/>
     </row>
-    <row r="35" spans="2:14">
+    <row r="35" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B35" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1984,7 +1999,7 @@
       <c r="M35" s="4"/>
       <c r="N35" s="11"/>
     </row>
-    <row r="36" spans="2:14">
+    <row r="36" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B36" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2002,7 +2017,7 @@
       <c r="M36" s="4"/>
       <c r="N36" s="11"/>
     </row>
-    <row r="37" spans="2:14">
+    <row r="37" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B37" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2020,7 +2035,7 @@
       <c r="M37" s="4"/>
       <c r="N37" s="11"/>
     </row>
-    <row r="38" spans="2:14">
+    <row r="38" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B38" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2038,7 +2053,7 @@
       <c r="M38" s="4"/>
       <c r="N38" s="11"/>
     </row>
-    <row r="39" spans="2:14">
+    <row r="39" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B39" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2056,7 +2071,7 @@
       <c r="M39" s="4"/>
       <c r="N39" s="11"/>
     </row>
-    <row r="40" spans="2:14">
+    <row r="40" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B40" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2074,7 +2089,7 @@
       <c r="M40" s="4"/>
       <c r="N40" s="11"/>
     </row>
-    <row r="41" spans="2:14">
+    <row r="41" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2092,7 +2107,7 @@
       <c r="M41" s="4"/>
       <c r="N41" s="11"/>
     </row>
-    <row r="42" spans="2:14">
+    <row r="42" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B42" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2110,7 +2125,7 @@
       <c r="M42" s="4"/>
       <c r="N42" s="11"/>
     </row>
-    <row r="43" spans="2:14">
+    <row r="43" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B43" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2128,7 +2143,7 @@
       <c r="M43" s="4"/>
       <c r="N43" s="11"/>
     </row>
-    <row r="44" spans="2:14">
+    <row r="44" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2146,7 +2161,7 @@
       <c r="M44" s="4"/>
       <c r="N44" s="11"/>
     </row>
-    <row r="45" spans="2:14">
+    <row r="45" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B45" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2164,7 +2179,7 @@
       <c r="M45" s="4"/>
       <c r="N45" s="11"/>
     </row>
-    <row r="46" spans="2:14">
+    <row r="46" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B46" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2182,7 +2197,7 @@
       <c r="M46" s="4"/>
       <c r="N46" s="11"/>
     </row>
-    <row r="47" spans="2:14">
+    <row r="47" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2200,7 +2215,7 @@
       <c r="M47" s="4"/>
       <c r="N47" s="11"/>
     </row>
-    <row r="48" spans="2:14">
+    <row r="48" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B48" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2218,7 +2233,7 @@
       <c r="M48" s="4"/>
       <c r="N48" s="11"/>
     </row>
-    <row r="49" spans="2:14">
+    <row r="49" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B49" s="4">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2236,7 +2251,7 @@
       <c r="M49" s="4"/>
       <c r="N49" s="11"/>
     </row>
-    <row r="50" spans="2:14">
+    <row r="50" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B50" s="4">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2254,7 +2269,7 @@
       <c r="M50" s="4"/>
       <c r="N50" s="11"/>
     </row>
-    <row r="51" spans="2:14">
+    <row r="51" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B51" s="4">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2272,7 +2287,7 @@
       <c r="M51" s="4"/>
       <c r="N51" s="11"/>
     </row>
-    <row r="52" spans="2:14">
+    <row r="52" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B52" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2290,7 +2305,7 @@
       <c r="M52" s="4"/>
       <c r="N52" s="11"/>
     </row>
-    <row r="53" spans="2:14">
+    <row r="53" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B53" s="4">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2418,16 +2433,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" xr3:uid="{9B253EF2-77E0-53E3-AE26-4D66ECD923F3}">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.9921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2435,7 +2450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2443,7 +2458,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2451,12 +2466,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
         <v>23</v>
       </c>
